--- a/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>dukeCdic</t>
+          <t>Población con apoyo confidencial bajo (Duke)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,39</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,36</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,87</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,93; 15,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,72; 17,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,54; 11,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,13; 15,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,61; 15,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,03; -3,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 11,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 13,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,96; 0,09</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,61%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,99; 25,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,24; 29,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,23; 19,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,99; 21,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,43; 22,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,02; -5,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; 18,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,0; 20,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,62; -0,19</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,35</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,88</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,25; -11,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 8,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,4; -11,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,44; -1,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 12,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,28; -8,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,47; -7,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 8,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,1; -11,74</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,51%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,15%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,04; -15,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 11,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,27; -16,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,02; -2,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,04; 17,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,26; -11,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,82; -10,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,81; 12,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,64; -15,64</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,54; 2,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,09; 13,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,03; -0,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,77; 4,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,4; 13,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,94; -1,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 2,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,83; 12,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,54; -2,6</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,34%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,3; 3,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,24; 19,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,24; -1,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; 6,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,63; 19,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,27; -2,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,96; 3,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,48; 18,04</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; -3,84</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,57</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,18</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,86; 6,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,11; 26,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,42; 8,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,77; 7,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,07; 23,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 2,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 6,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,0; 23,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,23; 4,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,89; 11,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,62; 45,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,78; 15,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,13; 12,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,64; 37,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,33; 4,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 10,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,08; 38,16</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,94; 7,22</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,48</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,91</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,23</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 8,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,1; 14,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,8; -2,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,28; 13,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,79; 13,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,34; -4,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 10,41</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,47; 13,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; -5,1</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,03%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,03%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 13,45</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,22; 22,34</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,92; -3,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,85; 21,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,22; 20,71</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,74; -6,68</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,86; 15,73</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,75; 19,76</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,91; -7,64</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,46</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,95</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,83; 0,86</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,16; 13,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,03; -3,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 4,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,25; 13,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,68; -5,44</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 2,15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,83; 12,8</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,07; -5,16</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,51%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,02%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,53; 1,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,23; 20,02</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,6; -5,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 6,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,77; 19,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,58; -7,85</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,55; 3,13</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,05; 18,72</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,95; -7,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>-13,12</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>-16,74</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-14,36</t>
+          <t>-14,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,87</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,87</t>
+          <t>-15,43</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 15,35</t>
+          <t>-18,09; -8,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 17,31</t>
+          <t>-1,04; 8,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 11,45</t>
+          <t>-22,0; -11,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 15,1</t>
+          <t>-10,23; -0,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 15,2</t>
+          <t>3,08; 11,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,03; -3,85</t>
+          <t>-18,46; -9,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 11,98</t>
+          <t>-12,75; -5,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 13,59</t>
+          <t>1,99; 8,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 0,09</t>
+          <t>-19,27; -12,26</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>-17,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,85%</t>
+          <t>-22,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,22%</t>
+          <t>-18,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>-12,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,61%</t>
+          <t>-20,46%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 25,53</t>
+          <t>-23,55; -11,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 29,04</t>
+          <t>-1,42; 11,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 19,18</t>
+          <t>-29,01; -15,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 21,5</t>
+          <t>-13,08; -0,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 22,23</t>
+          <t>3,95; 15,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,02; -5,78</t>
+          <t>-23,78; -13,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 18,16</t>
+          <t>-16,53; -7,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 20,44</t>
+          <t>2,6; 11,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-23,62; -0,19</t>
+          <t>-25,29; -16,5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,44</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,2</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,57</t>
+          <t>-17,01</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>10,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,35</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-11,88</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>9,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-15,4</t>
+          <t>-12,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,25; -11,29</t>
+          <t>-6,54; 2,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 8,06</t>
+          <t>5,09; 13,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,4; -11,91</t>
+          <t>-43,18; -2,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,44; -1,67</t>
+          <t>-3,77; 4,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,13; 12,51</t>
+          <t>6,4; 13,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,28; -8,39</t>
+          <t>-10,81; -2,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -7,95</t>
+          <t>-3,6; 2,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 8,96</t>
+          <t>6,83; 12,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,1; -11,74</t>
+          <t>-32,08; -4,33</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,45%</t>
+          <t>-2,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,17%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-22,93%</t>
+          <t>-25,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,57%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-17,51%</t>
+          <t>-9,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-15,55%</t>
+          <t>-0,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-20,15%</t>
+          <t>-18,06%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-28,04; -15,32</t>
+          <t>-9,3; 3,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 11,02</t>
+          <t>7,24; 19,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-30,27; -16,1</t>
+          <t>-63,89; -3,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,02; -2,51</t>
+          <t>-5,03; 6,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,04; 17,41</t>
+          <t>8,63; 19,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -11,29</t>
+          <t>-14,51; -3,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,82; -10,59</t>
+          <t>-4,96; 3,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 12,08</t>
+          <t>9,48; 18,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-24,64; -15,64</t>
+          <t>-45,48; -6,23</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,63</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,99</t>
+          <t>21,81</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>18,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,7</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>20,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-5,85</t>
+          <t>-0,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,5</t>
+          <t>-3,86; 6,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,09; 13,1</t>
+          <t>17,11; 26,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,03; -0,88</t>
+          <t>-3,41; 8,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,37</t>
+          <t>-2,77; 7,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,4; 13,87</t>
+          <t>14,07; 23,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,94; -1,85</t>
+          <t>-14,39; 1,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,54</t>
+          <t>-1,16; 6,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,4</t>
+          <t>17,0; 23,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,54; -2,6</t>
+          <t>-6,82; 3,15</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,41%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,93%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>28,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-8,34%</t>
+          <t>-1,43%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 3,76</t>
+          <t>-5,89; 11,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,24; 19,98</t>
+          <t>26,62; 45,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -1,35</t>
+          <t>-5,22; 14,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 6,25</t>
+          <t>-4,13; 12,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,63; 19,83</t>
+          <t>20,64; 37,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,27; -2,61</t>
+          <t>-21,11; 1,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 3,75</t>
+          <t>-1,77; 10,22</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,48; 18,04</t>
+          <t>26,08; 38,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,06; -3,84</t>
+          <t>-10,63; 5,03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,81</t>
+          <t>10,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>-9,25</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,57</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>-12,93</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>20,18</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>-11,22</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 6,55</t>
+          <t>0,52; 8,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,11; 26,48</t>
+          <t>7,1; 14,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 8,97</t>
+          <t>-13,83; -4,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,77</t>
+          <t>6,28; 13,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,07; 23,12</t>
+          <t>5,79; 13,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 2,96</t>
+          <t>-25,62; -7,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,25</t>
+          <t>4,79; 10,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,31</t>
+          <t>7,47; 13,16</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,46</t>
+          <t>-17,58; -7,59</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>-13,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>14,47%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>14,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>-18,73%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>15,19%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>-16,39%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 11,16</t>
+          <t>0,79; 13,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>26,62; 45,21</t>
+          <t>10,22; 22,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 15,31</t>
+          <t>-19,75; -6,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 12,47</t>
+          <t>8,85; 21,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>20,64; 37,36</t>
+          <t>8,22; 20,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 4,62</t>
+          <t>-38,08; -11,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 10,22</t>
+          <t>6,86; 15,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>26,08; 38,16</t>
+          <t>10,75; 19,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 7,22</t>
+          <t>-26,24; -11,29</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>11,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-7,48</t>
+          <t>-11,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,99</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>10,06</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-8,91</t>
+          <t>-9,66</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-8,23</t>
+          <t>-10,43</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 8,82</t>
+          <t>-3,83; 0,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>7,1; 14,66</t>
+          <t>9,16; 13,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,8; -2,58</t>
+          <t>-25,18; -5,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,9</t>
+          <t>0,29; 4,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,79; 13,83</t>
+          <t>9,25; 13,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,34; -4,51</t>
+          <t>-14,12; -7,2</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,41</t>
+          <t>-1,09; 2,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,47; 13,16</t>
+          <t>9,83; 12,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -5,1</t>
+          <t>-18,0; -7,47</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-11,03%</t>
+          <t>-16,4%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-12,9%</t>
+          <t>-13,66%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>16,18%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-12,03%</t>
+          <t>-15,04%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,79; 13,45</t>
+          <t>-5,53; 1,31</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>10,22; 22,34</t>
+          <t>13,23; 20,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,92; -3,98</t>
+          <t>-37,14; -8,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,85; 21,0</t>
+          <t>0,43; 6,98</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>8,22; 20,71</t>
+          <t>12,77; 19,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,74; -6,68</t>
+          <t>-19,91; -10,29</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,73</t>
+          <t>-1,55; 3,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>10,75; 19,76</t>
+          <t>14,05; 18,72</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -7,64</t>
+          <t>-25,95; -10,86</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,63</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>11,07</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-6,47</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,48</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>11,36</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-7,46</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>11,23</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-6,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 0,86</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>9,16; 13,3</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; -3,76</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,29; 4,84</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>9,25; 13,3</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-9,68; -5,44</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 2,15</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>9,83; 12,8</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-9,07; -5,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-2,4%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>16,28%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-9,51%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>3,5%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>16,07%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-10,55%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>0,68%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>16,18%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-10,02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-5,53; 1,31</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>13,23; 20,02</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-14,6; -5,61</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 6,98</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>12,77; 19,14</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-13,58; -7,85</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 3,13</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>14,05; 18,72</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-12,95; -7,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P57_AC_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,09; -8,42</t>
+          <t>-17,69; -7,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 8,29</t>
+          <t>-1,41; 7,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,0; -11,36</t>
+          <t>-22,78; -11,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,23; -0,63</t>
+          <t>-10,65; -1,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 11,64</t>
+          <t>2,79; 11,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-18,46; -9,53</t>
+          <t>-18,55; -9,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,75; -5,83</t>
+          <t>-12,92; -6,07</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,99; 8,34</t>
+          <t>2,02; 8,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,27; -12,26</t>
+          <t>-18,56; -11,73</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,55; -11,48</t>
+          <t>-23,12; -10,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 11,27</t>
+          <t>-1,71; 10,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,01; -15,53</t>
+          <t>-29,5; -15,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -0,9</t>
+          <t>-13,78; -1,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,95; 15,84</t>
+          <t>3,66; 15,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,78; -13,07</t>
+          <t>-23,91; -13,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,53; -7,93</t>
+          <t>-16,85; -8,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 11,4</t>
+          <t>2,63; 10,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,29; -16,5</t>
+          <t>-24,35; -15,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,54; 2,5</t>
+          <t>-5,79; 2,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 13,1</t>
+          <t>4,82; 13,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-43,18; -2,37</t>
+          <t>-41,16; -2,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 4,37</t>
+          <t>-3,66; 4,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 13,87</t>
+          <t>6,69; 14,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,81; -2,71</t>
+          <t>-10,54; -2,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 2,54</t>
+          <t>-3,53; 2,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 12,4</t>
+          <t>6,99; 12,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-32,08; -4,33</t>
+          <t>-32,55; -3,98</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 3,76</t>
+          <t>-8,37; 4,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 19,98</t>
+          <t>6,99; 20,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-63,89; -3,34</t>
+          <t>-59,91; -3,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 6,25</t>
+          <t>-4,93; 6,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 19,83</t>
+          <t>9,02; 20,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,51; -3,84</t>
+          <t>-14,31; -3,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 3,75</t>
+          <t>-4,94; 3,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,48; 18,04</t>
+          <t>9,72; 18,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,48; -6,23</t>
+          <t>-45,17; -5,82</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 6,55</t>
+          <t>-3,6; 6,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,11; 26,48</t>
+          <t>16,88; 26,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 8,28</t>
+          <t>-3,31; 7,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 7,77</t>
+          <t>-2,4; 7,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 23,12</t>
+          <t>14,02; 22,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,39; 1,25</t>
+          <t>-15,24; 1,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,25</t>
+          <t>-1,17; 5,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,0; 23,31</t>
+          <t>16,66; 23,54</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 3,15</t>
+          <t>-6,45; 3,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 11,16</t>
+          <t>-5,5; 11,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,62; 45,21</t>
+          <t>26,01; 45,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 14,12</t>
+          <t>-5,24; 13,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 12,47</t>
+          <t>-3,53; 11,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>20,64; 37,36</t>
+          <t>20,56; 36,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,11; 1,95</t>
+          <t>-22,36; 1,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 10,22</t>
+          <t>-1,82; 9,62</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>26,08; 38,16</t>
+          <t>25,27; 38,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 5,03</t>
+          <t>-9,89; 4,71</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,52; 8,82</t>
+          <t>0,13; 8,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,1; 14,66</t>
+          <t>6,68; 14,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,83; -4,32</t>
+          <t>-14,07; -4,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 13,9</t>
+          <t>5,85; 13,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,79; 13,83</t>
+          <t>6,44; 13,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-25,62; -7,36</t>
+          <t>-26,84; -7,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 10,41</t>
+          <t>4,67; 10,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 13,16</t>
+          <t>7,44; 13,28</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,58; -7,59</t>
+          <t>-18,99; -7,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,79; 13,45</t>
+          <t>0,2; 13,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,22; 22,34</t>
+          <t>9,69; 22,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -6,52</t>
+          <t>-20,33; -7,43</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,85; 21,0</t>
+          <t>8,17; 20,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,22; 20,71</t>
+          <t>9,08; 20,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,08; -11,11</t>
+          <t>-38,22; -11,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,86; 15,73</t>
+          <t>6,75; 15,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,75; 19,76</t>
+          <t>10,64; 19,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-26,24; -11,29</t>
+          <t>-27,77; -11,67</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 0,86</t>
+          <t>-4,01; 0,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,3</t>
+          <t>8,83; 13,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-25,18; -5,87</t>
+          <t>-24,46; -5,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,84</t>
+          <t>0,33; 4,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,3</t>
+          <t>9,4; 13,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-14,12; -7,2</t>
+          <t>-14,34; -6,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,15</t>
+          <t>-1,1; 2,12</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,83; 12,8</t>
+          <t>9,61; 12,85</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-18,0; -7,47</t>
+          <t>-17,94; -7,58</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,31</t>
+          <t>-5,83; 1,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>13,23; 20,02</t>
+          <t>12,78; 19,81</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-37,14; -8,7</t>
+          <t>-36,54; -8,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,43; 6,98</t>
+          <t>0,46; 6,94</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,77; 19,14</t>
+          <t>13,07; 18,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,91; -10,29</t>
+          <t>-20,4; -10,11</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,13</t>
+          <t>-1,56; 3,1</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,05; 18,72</t>
+          <t>13,69; 18,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-25,95; -10,86</t>
+          <t>-26,11; -10,98</t>
         </is>
       </c>
     </row>
